--- a/data/blank_street_type_modified.xlsx
+++ b/data/blank_street_type_modified.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\project\seattle_streets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git\seattle_streets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E5368-E7D7-4E05-9F8A-1D5296D4DFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F04A1C-F48A-4049-BE50-D7C22FA46EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,6 +384,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{59395B9A-8B5C-4B11-8F0D-FDBBCA9089E3}" name="Table1" displayName="Table1" ref="A1:B81" totalsRowShown="0">
+  <autoFilter ref="A1:B81" xr:uid="{59395B9A-8B5C-4B11-8F0D-FDBBCA9089E3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B81">
+    <sortCondition ref="A1:A81"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{82C13CF8-601E-4F54-8681-BBCF20D9ADC1}" name="ord_stname_concat"/>
+    <tableColumn id="2" xr3:uid="{3A7D1C4C-6F94-4AB2-93F2-B8C0C48CA34B}" name="ord_street_type_fix"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,13 +688,13 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,23 +707,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -717,63 +731,63 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -781,159 +795,159 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>81</v>
@@ -941,87 +955,87 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
@@ -1029,31 +1043,31 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
@@ -1061,103 +1075,103 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="B60" t="s">
         <v>83</v>
@@ -1165,7 +1179,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
         <v>83</v>
@@ -1173,23 +1187,23 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>83</v>
@@ -1197,7 +1211,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B65" t="s">
         <v>83</v>
@@ -1205,55 +1219,55 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
         <v>84</v>
@@ -1261,10 +1275,10 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,15 +1291,15 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B76" t="s">
         <v>84</v>
@@ -1293,45 +1307,48 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>